--- a/College lectures/Тест План Лендинга.xlsx
+++ b/College lectures/Тест План Лендинга.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebk\Desktop\Testing-automatization\College lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815ECC7-E6FD-4C31-9CDE-40887DB29282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89DB797-9449-4485-9395-1A91642D6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,69 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Spaceship24</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{528F630F-7599-4C27-9511-DC8730EB106E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Spaceship24:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Добавить дымовое тестирование и критического пути</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B2548B48-9481-49CD-BEF4-A1F1B9B505C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Spaceship24:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Это указывается в тестовых сценариях
+Тут не нужно</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
@@ -101,10 +164,6 @@
     <t>Все баги с высоким приоритетом важности устранены</t>
   </si>
   <si>
-    <t>In Scope
-Рамки тестирования</t>
-  </si>
-  <si>
     <t>Risks
 Риски</t>
   </si>
@@ -134,10 +193,6 @@
 Временные сроки</t>
   </si>
   <si>
-    <t>Out of Scope
-Вне рамок тестирования</t>
-  </si>
-  <si>
     <t>Проверка возможности отправки заявки в семейный лагерь. Проверка отсутствия критических багов и удобства интерфейса</t>
   </si>
   <si>
@@ -217,6 +272,14 @@
   </si>
   <si>
     <t>Маркетолог</t>
+  </si>
+  <si>
+    <t>In Scope
+Виды тестов, что запланированы</t>
+  </si>
+  <si>
+    <t>Out of Scope
+Вне рамок тестирования (Тесты, которые не будут проводиться)</t>
   </si>
 </sst>
 </file>
@@ -226,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +354,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -565,6 +643,83 @@
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -583,38 +738,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,61 +762,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -965,11 +1043,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,36 +1060,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="30" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1021,17 +1099,17 @@
         <v>44593</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1041,262 +1119,259 @@
         <v>44652</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="1" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="35" t="s">
+    <row r="15" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="47" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="49" t="s">
-        <v>41</v>
+      <c r="F18" s="36"/>
+      <c r="G18" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A17:B17"/>
@@ -1313,23 +1388,27 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{847A4F69-33A6-436F-AA4C-AEDF866D1310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/College lectures/Тест План Лендинга.xlsx
+++ b/College lectures/Тест План Лендинга.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebk\Desktop\Testing-automatization\College lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89DB797-9449-4485-9395-1A91642D6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFDE043-682A-459D-A773-FD132F25DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест План Лендинга" sheetId="1" r:id="rId1"/>
+    <sheet name="Структура сайта Эл. веб страниц" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,71 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Spaceship24</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{528F630F-7599-4C27-9511-DC8730EB106E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Spaceship24:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Добавить дымовое тестирование и критического пути</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B2548B48-9481-49CD-BEF4-A1F1B9B505C6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Spaceship24:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Это указывается в тестовых сценариях
-Тут не нужно</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Менеджер проекта</t>
   </si>
@@ -244,9 +182,6 @@
     <t>Насколько удобно использовать сайт</t>
   </si>
   <si>
-    <t>Условия тестирования</t>
-  </si>
-  <si>
     <t>Тип приложения</t>
   </si>
   <si>
@@ -254,9 +189,6 @@
   </si>
   <si>
     <t>Привлечение конечных пользователей для сбора обратной связи и выявления багов</t>
-  </si>
-  <si>
-    <t>Корректные и некорректные входные данные</t>
   </si>
   <si>
     <t>Нагрузочное тестирование</t>
@@ -280,6 +212,117 @@
   <si>
     <t>Out of Scope
 Вне рамок тестирования (Тесты, которые не будут проводиться)</t>
+  </si>
+  <si>
+    <t>Скроллер отзывов о нас</t>
+  </si>
+  <si>
+    <t>Ссылка на расписание</t>
+  </si>
+  <si>
+    <t>Дымовое тестирование</t>
+  </si>
+  <si>
+    <t>Тестирование критического пути</t>
+  </si>
+  <si>
+    <t>Минимальный набор тестов на явные ошибки. Не проходившую этот тест программу не имеет смысла отдавать на более глубокое тестирование.</t>
+  </si>
+  <si>
+    <t>основной тип тестовых испытаний, во время которого значимые элементы и функции приложения проверяются на предмет правильности работы при стандартном их использовании.</t>
+  </si>
+  <si>
+    <t>Название элемента</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Функционал</t>
+  </si>
+  <si>
+    <t>Отправить заявку на бронирование</t>
+  </si>
+  <si>
+    <t>Кнопка</t>
+  </si>
+  <si>
+    <t>Слайдер</t>
+  </si>
+  <si>
+    <t>Просмотр отзывов клиентов</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Переход на страницу https://7feetgolubino.ru/program</t>
+  </si>
+  <si>
+    <t>Структура сайта и элементы веб страниц</t>
+  </si>
+  <si>
+    <t>Открывается страница с формой https://7feetgolubino.ru/form</t>
+  </si>
+  <si>
+    <t>Выберите вариант размещения</t>
+  </si>
+  <si>
+    <t>Выпадающий список</t>
+  </si>
+  <si>
+    <t>При выборе элемента списка появляется информация о выбранном варианте и кнопка Отправить заявку на бронирование</t>
+  </si>
+  <si>
+    <t>3 Иконки соцсетей</t>
+  </si>
+  <si>
+    <t>Иконка</t>
+  </si>
+  <si>
+    <t>Переход на соцсети</t>
+  </si>
+  <si>
+    <t>Основная страница (https://7feetgolubino.ru/)</t>
+  </si>
+  <si>
+    <t>Ваше имя</t>
+  </si>
+  <si>
+    <t>Поле для ввода текста</t>
+  </si>
+  <si>
+    <t>Ввод имени</t>
+  </si>
+  <si>
+    <t>Ваш телефон</t>
+  </si>
+  <si>
+    <t>Ввод телефона</t>
+  </si>
+  <si>
+    <t>Отправить</t>
+  </si>
+  <si>
+    <t>Отправка данных</t>
+  </si>
+  <si>
+    <t>Забронировать тур (https://7feetgolubino.ru/form)</t>
+  </si>
+  <si>
+    <t>Программа лагеря (https://7feetgolubino.ru/program)</t>
+  </si>
+  <si>
+    <t>7 выпадающих списков дней</t>
+  </si>
+  <si>
+    <t>Просмотр программы каждого дня</t>
+  </si>
+  <si>
+    <t>Вернуться на главную</t>
+  </si>
+  <si>
+    <t>Переход на страницу https://7feetgolubino.ru/</t>
   </si>
 </sst>
 </file>
@@ -355,19 +398,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -626,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -655,71 +701,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -745,9 +726,15 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,6 +749,104 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -779,6 +864,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5534158</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="img">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28F61F3-0B8C-AC4F-AC50-9A8FAA124FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8972550" y="0"/>
+          <a:ext cx="7048633" cy="3969573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3990017</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF582979-FD86-47A9-ABC0-751DD917DEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="4269247"/>
+          <a:ext cx="5437817" cy="2816857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,11 +1238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,36 +1255,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1101,15 +1296,15 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1124,45 +1319,45 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1171,195 +1366,240 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="32" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="33" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="11"/>
+    <row r="16" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="39"/>
       <c r="G16" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="10" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="10" t="s">
+    <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="7" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H1:J1"/>
@@ -1372,43 +1612,202 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{847A4F69-33A6-436F-AA4C-AEDF866D1310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4DFBC-680B-4FCF-B3C9-992CAAA5F91B}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="90.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/College lectures/Тест План Лендинга.xlsx
+++ b/College lectures/Тест План Лендинга.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebk\Desktop\Testing-automatization\College lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFDE043-682A-459D-A773-FD132F25DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA0D41-E8E8-4197-AD36-D4A5054BF6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест План Лендинга" sheetId="1" r:id="rId1"/>
     <sheet name="Структура сайта Эл. веб страниц" sheetId="2" r:id="rId2"/>
+    <sheet name="Тест-Кейсы" sheetId="4" r:id="rId3"/>
+    <sheet name="Чек-лист" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
   <si>
     <t>Менеджер проекта</t>
   </si>
@@ -323,6 +325,232 @@
   </si>
   <si>
     <t>Переход на страницу https://7feetgolubino.ru/</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат:</t>
+  </si>
+  <si>
+    <t>Шаги:</t>
+  </si>
+  <si>
+    <t>Данные:</t>
+  </si>
+  <si>
+    <t>Предусловия:</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TК-002 </t>
+  </si>
+  <si>
+    <t>Negative Test-cases</t>
+  </si>
+  <si>
+    <t>TК-001</t>
+  </si>
+  <si>
+    <t>Positive Test-cases</t>
+  </si>
+  <si>
+    <t>FB-011</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Отображения страницы сайта
+IE 11 в Windows 8.1</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображения страницы сайта
+Chrome 92 в Windows 10 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Кроссбраузерное тестирование
+ сайта</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ инструмент</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">а </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>lambdatest.com</t>
+    </r>
+  </si>
+  <si>
+    <t>FB-009</t>
+  </si>
+  <si>
+    <t>FB-008</t>
+  </si>
+  <si>
+    <t>FB-007</t>
+  </si>
+  <si>
+    <t>Проверка ввода данных пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer </t>
+  </si>
+  <si>
+    <t>FB-002</t>
+  </si>
+  <si>
+    <t>FB-012</t>
+  </si>
+  <si>
+    <t>FB-001</t>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При клике на кнопки "О нас", "Контакты", "Питомцы" открываются соответствующие страницы </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Данные</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Блок проверок</t>
+  </si>
+  <si>
+    <t>macOS Big Sur,  Safari Версия 14.1.2 (16611.3.10.1.6)</t>
+  </si>
+  <si>
+    <t>Окружение</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Чек-лист №1</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование сайта</t>
+  </si>
+  <si>
+    <t>Тест-кейсы для лендинга «Голубино»</t>
+  </si>
+  <si>
+    <t>Проверка подачи заявки</t>
+  </si>
+  <si>
+    <t>Открыта форма подачи заявки (https://7feetgolubino.ru/form)</t>
+  </si>
+  <si>
+    <t>Текстовое имя "Клиент", телефон в формате "987 654 32 10"</t>
+  </si>
+  <si>
+    <t>1. Кликнуть мышкой на поле "Ваше имя"</t>
+  </si>
+  <si>
+    <t>2. Ввести имя</t>
+  </si>
+  <si>
+    <t>3. Кликнуть мышкой на поле "Телефон"</t>
+  </si>
+  <si>
+    <t>4. Ввести телефон</t>
+  </si>
+  <si>
+    <t>5. Нажать кнопку "Отправить"</t>
+  </si>
+  <si>
+    <t>Проверка подачи неправильной заявки</t>
+  </si>
+  <si>
+    <t>4. Ввести телефон в неверном формате</t>
+  </si>
+  <si>
+    <t>Текстовое имя "55", телефон в формате "987 654 32 10"</t>
+  </si>
+  <si>
+    <t>Получить красное сообщение "Please put a name"</t>
+  </si>
+  <si>
+    <t>Постусловие:</t>
+  </si>
+  <si>
+    <t>Переход на страницу благодарности (https://golubino.tilda.ws/thankspage)</t>
+  </si>
+  <si>
+    <t>Постусловие</t>
+  </si>
+  <si>
+    <t>Пользователь должен ввести корректное имя</t>
+  </si>
+  <si>
+    <t>Успешная подача заявки</t>
   </si>
 </sst>
 </file>
@@ -332,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +643,123 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +868,50 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -666,13 +1051,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -701,6 +1186,98 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -726,15 +1303,9 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,89 +1320,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,12 +1332,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1255,36 +1834,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1296,15 +1875,15 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1319,28 +1898,28 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1349,15 +1928,15 @@
       <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="48" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1366,15 +1945,15 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1383,15 +1962,15 @@
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1400,15 +1979,15 @@
       <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1417,15 +1996,15 @@
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="50" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1434,11 +2013,11 @@
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1447,15 +2026,15 @@
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1464,126 +2043,122 @@
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="38" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="38" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:B18"/>
@@ -1600,18 +2175,22 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1625,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4DFBC-680B-4FCF-B3C9-992CAAA5F91B}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,164 +2218,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1810,4 +2389,1335 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF73F16-E638-4DF1-82C1-B1217B4E394A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="66" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" style="66"/>
+    <col min="6" max="6" width="24.7109375" style="66" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="82"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="67"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="67"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="67"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="109"/>
+      <c r="B9" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="67"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="109"/>
+      <c r="B10" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="67"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="109"/>
+      <c r="B11" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="67"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="110"/>
+      <c r="B12" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="67"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="67"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="67"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="67"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="67"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="67"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="67"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="67"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="109"/>
+      <c r="B22" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="67"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="109"/>
+      <c r="B23" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="67"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="109"/>
+      <c r="B24" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="67"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="110"/>
+      <c r="B25" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="67"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="67"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B5 B18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Highest,High,Medium,Low,Lowest"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F692A-F41E-4C94-A2FC-95DD4825CA6B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="92" style="66" customWidth="1"/>
+    <col min="4" max="4" width="21" style="66" customWidth="1"/>
+    <col min="5" max="5" width="13" style="66" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="66" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="85"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="72"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="85"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="71"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="85"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="72"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="72"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="85"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="72"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="85"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="72"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="85"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="71"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="85"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="85"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="85"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="72"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="72"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="71"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="93"/>
+      <c r="E23" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="91"/>
+    </row>
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="90"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="84"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="84"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="84"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="84"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="84"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="84"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="84"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="84"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="84"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="84"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="84"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="84"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="84"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="84"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="84"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="84"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="84"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="84"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="84"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="84"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="84"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="84"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="84"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="84"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="84"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="84"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="84"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="84"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="84"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="84"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="84"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="84"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="84"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="84"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="84"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="84"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="84"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="84"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="84"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="84"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="84"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="84"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="84"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="84"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="84"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="84"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="84"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="84"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="84"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="84"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="84"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="84"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+    </row>
+    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="84"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+    </row>
+    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="84"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+    </row>
+    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="84"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="84"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="84"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="84"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+    </row>
+    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="84"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="84"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+    </row>
+    <row r="97" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+    </row>
+    <row r="98" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+    </row>
+    <row r="99" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+    </row>
+    <row r="100" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+    </row>
+    <row r="101" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+    </row>
+    <row r="102" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+    </row>
+    <row r="103" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+    </row>
+    <row r="104" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+    </row>
+    <row r="105" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+    </row>
+    <row r="106" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+    </row>
+    <row r="107" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+    </row>
+    <row r="108" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+    </row>
+    <row r="109" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+    </row>
+    <row r="110" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F110" s="83"/>
+    </row>
+    <row r="111" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F111" s="83"/>
+    </row>
+    <row r="112" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F112" s="83"/>
+    </row>
+    <row r="113" spans="6:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F113" s="83"/>
+    </row>
+    <row r="114" spans="6:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F114" s="83"/>
+    </row>
+    <row r="115" spans="6:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F115" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Highest,High,Medium,Low,Lowest"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{3BBC626A-CC1D-49A8-99B2-7A95B27B3A38}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/College lectures/Тест План Лендинга.xlsx
+++ b/College lectures/Тест План Лендинга.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebk\Desktop\Testing-automatization\College lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA0D41-E8E8-4197-AD36-D4A5054BF6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EB736-77D2-4C7A-A64A-A52D9245AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Тест План Лендинга" sheetId="1" r:id="rId1"/>
-    <sheet name="Структура сайта Эл. веб страниц" sheetId="2" r:id="rId2"/>
-    <sheet name="Тест-Кейсы" sheetId="4" r:id="rId3"/>
-    <sheet name="Чек-лист" sheetId="5" r:id="rId4"/>
+    <sheet name="1 Тест План Лендинга" sheetId="1" r:id="rId1"/>
+    <sheet name="2 Структура сайта Эл. веб стр" sheetId="2" r:id="rId2"/>
+    <sheet name="3 Тест-Кейсы" sheetId="4" r:id="rId3"/>
+    <sheet name="4 Чек-лист" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="182">
   <si>
     <t>Менеджер проекта</t>
   </si>
@@ -276,15 +276,9 @@
     <t>При выборе элемента списка появляется информация о выбранном варианте и кнопка Отправить заявку на бронирование</t>
   </si>
   <si>
-    <t>3 Иконки соцсетей</t>
-  </si>
-  <si>
     <t>Иконка</t>
   </si>
   <si>
-    <t>Переход на соцсети</t>
-  </si>
-  <si>
     <t>Основная страница (https://7feetgolubino.ru/)</t>
   </si>
   <si>
@@ -348,209 +342,262 @@
     <t xml:space="preserve">TК-002 </t>
   </si>
   <si>
-    <t>Negative Test-cases</t>
-  </si>
-  <si>
     <t>TК-001</t>
   </si>
   <si>
-    <t>Positive Test-cases</t>
-  </si>
-  <si>
-    <t>FB-011</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Отображения страницы сайта
-IE 11 в Windows 8.1</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Отображения страницы сайта
-Chrome 92 в Windows 10 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Кроссбраузерное тестирование
- сайта</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
+    <t>High</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Данные</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Блок проверок</t>
+  </si>
+  <si>
+    <t>Окружение</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Чек-лист №1</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование сайта</t>
+  </si>
+  <si>
+    <t>Тест-кейсы для лендинга «Голубино»</t>
+  </si>
+  <si>
+    <t>Проверка подачи заявки</t>
+  </si>
+  <si>
+    <t>Открыта форма подачи заявки (https://7feetgolubino.ru/form)</t>
+  </si>
+  <si>
+    <t>Текстовое имя "Клиент", телефон в формате "987 654 32 10"</t>
+  </si>
+  <si>
+    <t>1. Кликнуть мышкой на поле "Ваше имя"</t>
+  </si>
+  <si>
+    <t>2. Ввести имя</t>
+  </si>
+  <si>
+    <t>3. Кликнуть мышкой на поле "Телефон"</t>
+  </si>
+  <si>
+    <t>4. Ввести телефон</t>
+  </si>
+  <si>
+    <t>5. Нажать кнопку "Отправить"</t>
+  </si>
+  <si>
+    <t>Проверка подачи неправильной заявки</t>
+  </si>
+  <si>
+    <t>4. Ввести телефон в неверном формате</t>
+  </si>
+  <si>
+    <t>Текстовое имя "55", телефон в формате "987 654 32 10"</t>
+  </si>
+  <si>
+    <t>Получить красное сообщение "Please put a name"</t>
+  </si>
+  <si>
+    <t>Постусловие:</t>
+  </si>
+  <si>
+    <t>Переход на страницу благодарности (https://golubino.tilda.ws/thankspage)</t>
+  </si>
+  <si>
+    <t>Успешная подача заявки</t>
+  </si>
+  <si>
+    <t>Иконка соцсети Facebook</t>
+  </si>
+  <si>
+    <t>Иконка соцсети Instagram</t>
+  </si>
+  <si>
+    <t>Иконка мессенджера Telegram</t>
+  </si>
+  <si>
+    <t>Переход на страницу https://t.me/Semyon_Kolonin</t>
+  </si>
+  <si>
+    <t>Переход на страницу https://www.instagram.com/7feetfamilycamps/</t>
+  </si>
+  <si>
+    <t>Переход на страницу https://www.facebook.com/worldfamilycamps/</t>
+  </si>
+  <si>
+    <t>Чек-лист - краткий список проверок</t>
+  </si>
+  <si>
+    <t>Тест-кейс - это план тестирования чего-то из чек-листа</t>
+  </si>
+  <si>
+    <t>Зделать 6 тест кейсов</t>
+  </si>
+  <si>
+    <t>Тестировщик Глеб</t>
+  </si>
+  <si>
+    <t>Номер отчёта о деффекте при наличии</t>
+  </si>
+  <si>
+    <t>Т.е. в нем нужно описать общими словами, что необходимо протестировать вручную</t>
+  </si>
+  <si>
+    <t>https://7feetgolubino.ru/form</t>
+  </si>
+  <si>
+    <t>это как Краткий тест кейс</t>
+  </si>
+  <si>
+    <t>TК-003</t>
+  </si>
+  <si>
+    <t>TК-004</t>
+  </si>
+  <si>
+    <t>Проверка работы слайдера отзывов</t>
+  </si>
+  <si>
+    <t>Открыта основная страница на месте слайдера (https://7feetgolubino.ru/)</t>
+  </si>
+  <si>
+    <t>1. Кликнуть мышкой на кнопку "&gt;"</t>
+  </si>
+  <si>
+    <t>2. Кликнуть мышкой на кнопку "&lt;"</t>
+  </si>
+  <si>
+    <t>Отзывы переключаются</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Проверка выбора варианта размещения</t>
+  </si>
+  <si>
+    <t>Открыта основная страница на месте выпадающего списка (https://7feetgolubino.ru/)</t>
+  </si>
+  <si>
+    <t>1. Кликнуть мышкой на выпадающий список "Выберите вариант размещения"</t>
+  </si>
+  <si>
+    <t>2. Выберите эл. из списка</t>
+  </si>
+  <si>
+    <t>Positive Test-case</t>
+  </si>
+  <si>
+    <t>Negative Test-case</t>
+  </si>
+  <si>
+    <t>4. Нажать кнопку "Отправить заявку на бронирование"</t>
+  </si>
+  <si>
+    <t>Переход на страницу оформления заявки (https://7feetgolubino.ru/econom)</t>
+  </si>
+  <si>
+    <t>Успешный переход на страницу подачи заявки в эконом номер</t>
+  </si>
+  <si>
+    <t>TК-005</t>
+  </si>
+  <si>
+    <t>TК-006</t>
+  </si>
+  <si>
+    <t>Открыта страница оформления заявки (https://7feetgolubino.ru/econom)</t>
+  </si>
+  <si>
+    <t>Проверка отправки формы с вариантом размещения Эконом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текстовое имя "55"
+Телефон в формате "987 654 32 10"
+Количество взрослых "2"
+Количество детей 2-5 лет "1"
+Количество детей 6-14 лет "3"
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
- инструмент</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">а </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>lambdatest.com</t>
-    </r>
-  </si>
-  <si>
-    <t>FB-009</t>
-  </si>
-  <si>
-    <t>FB-008</t>
-  </si>
-  <si>
-    <t>FB-007</t>
-  </si>
-  <si>
-    <t>Проверка ввода данных пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">footer </t>
-  </si>
-  <si>
-    <t>FB-002</t>
-  </si>
-  <si>
-    <t>FB-012</t>
-  </si>
-  <si>
-    <t>FB-001</t>
-  </si>
-  <si>
-    <t>Главная страница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При клике на кнопки "О нас", "Контакты", "Питомцы" открываются соответствующие страницы </t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Результат</t>
-  </si>
-  <si>
-    <t>Данные</t>
-  </si>
-  <si>
-    <t>Проверка</t>
-  </si>
-  <si>
-    <t>Блок проверок</t>
-  </si>
-  <si>
-    <t>macOS Big Sur,  Safari Версия 14.1.2 (16611.3.10.1.6)</t>
-  </si>
-  <si>
-    <t>Окружение</t>
-  </si>
-  <si>
-    <t>Исполнитель</t>
-  </si>
-  <si>
-    <t>Чек-лист №1</t>
-  </si>
-  <si>
-    <t>Функциональное тестирование сайта</t>
-  </si>
-  <si>
-    <t>Тест-кейсы для лендинга «Голубино»</t>
-  </si>
-  <si>
-    <t>Проверка подачи заявки</t>
-  </si>
-  <si>
-    <t>Открыта форма подачи заявки (https://7feetgolubino.ru/form)</t>
-  </si>
-  <si>
-    <t>Текстовое имя "Клиент", телефон в формате "987 654 32 10"</t>
-  </si>
-  <si>
-    <t>1. Кликнуть мышкой на поле "Ваше имя"</t>
-  </si>
-  <si>
-    <t>2. Ввести имя</t>
-  </si>
-  <si>
-    <t>3. Кликнуть мышкой на поле "Телефон"</t>
-  </si>
-  <si>
-    <t>4. Ввести телефон</t>
-  </si>
-  <si>
-    <t>5. Нажать кнопку "Отправить"</t>
-  </si>
-  <si>
-    <t>Проверка подачи неправильной заявки</t>
-  </si>
-  <si>
-    <t>4. Ввести телефон в неверном формате</t>
-  </si>
-  <si>
-    <t>Текстовое имя "55", телефон в формате "987 654 32 10"</t>
-  </si>
-  <si>
-    <t>Получить красное сообщение "Please put a name"</t>
-  </si>
-  <si>
-    <t>Постусловие:</t>
-  </si>
-  <si>
-    <t>Переход на страницу благодарности (https://golubino.tilda.ws/thankspage)</t>
-  </si>
-  <si>
-    <t>Постусловие</t>
-  </si>
-  <si>
-    <t>Пользователь должен ввести корректное имя</t>
-  </si>
-  <si>
-    <t>Успешная подача заявки</t>
+  </si>
+  <si>
+    <t>1. Ввести все данные</t>
+  </si>
+  <si>
+    <t>2. Нажать кнопку "Отправить"</t>
+  </si>
+  <si>
+    <t>5 уже готовы</t>
+  </si>
+  <si>
+    <t>Открыта страница программы лагеря https://7feetgolubino.ru/program</t>
+  </si>
+  <si>
+    <t>Возращение на главную страницу с страницы программы лагеря</t>
+  </si>
+  <si>
+    <t>1. Пролистать страницу до самого низа</t>
+  </si>
+  <si>
+    <t>2. Кликнуть кнопку Вернуться на главную</t>
+  </si>
+  <si>
+    <t>Успешный переход на страницу главную страницу сайта</t>
+  </si>
+  <si>
+    <t>Переход на главную страницу формления заявки (https://7feetgolubino.ru)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>https://7feetgolubino.ru/econom</t>
+  </si>
+  <si>
+    <t>Текстовое имя "Клиент",
+Телефон в формате "987 654 32 10",
+Количество взрослых "2",
+Количество детей 2-5 лет "3",
+Количество детей 6-14 лет "0"</t>
+  </si>
+  <si>
+    <t>Подача заявки. Переход на страницу благодарности</t>
+  </si>
+  <si>
+    <t>Неправильная подача заявки. Получение сообщения об ошибке</t>
+  </si>
+  <si>
+    <t>Подача заявки эконом. Переход на страницу благодарности</t>
+  </si>
+  <si>
+    <t>Увеличение размера картинки при клике на неё. Возможность просмотра других картинок.</t>
+  </si>
+  <si>
+    <t>Работа слайдера. Переключение комментариев.</t>
+  </si>
+  <si>
+    <t>Переход на Facebook</t>
+  </si>
+  <si>
+    <t>Переход на Instagram</t>
+  </si>
+  <si>
+    <t>Переход на Telegram</t>
   </si>
 </sst>
 </file>
@@ -560,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,13 +714,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
@@ -684,46 +724,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00000A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -759,7 +759,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,12 +894,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
       </patternFill>
@@ -911,7 +905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1151,13 +1145,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1206,6 +1239,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1332,100 +1418,77 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1457,8 +1520,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5534158</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45273</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>311973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,13 +1575,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>154447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3990017</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>113804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1820,50 +1883,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B19"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="60" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1875,15 +1938,15 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1898,28 +1961,28 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1928,15 +1991,15 @@
       <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1945,15 +2008,15 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1962,15 +2025,15 @@
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1979,15 +2042,15 @@
       <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1996,15 +2059,15 @@
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2013,8 +2076,8 @@
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2026,15 +2089,15 @@
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2043,104 +2106,104 @@
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
@@ -2202,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4DFBC-680B-4FCF-B3C9-992CAAA5F91B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,18 +2281,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
@@ -2247,11 +2310,11 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
@@ -2299,92 +2362,114 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="C9" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="15" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="B14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2396,320 +2481,759 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="66" customWidth="1"/>
-    <col min="2" max="5" width="14.42578125" style="66"/>
-    <col min="6" max="6" width="24.7109375" style="66" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="66"/>
+    <col min="1" max="1" width="26.28515625" style="17" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" style="17"/>
+    <col min="6" max="6" width="14" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="82"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="75" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="E1" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="H3" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B4" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="H4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="H5" s="35">
+        <v>4</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="H6" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="H7" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="H8" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="109"/>
+      <c r="B9" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="109"/>
+      <c r="B10" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="109"/>
+      <c r="B11" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="96"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="110"/>
+      <c r="B12" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="96"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="H13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="H14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="96"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="H16" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="B17" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="H17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="67"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
+      <c r="B18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="H18" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="67"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
-      <c r="B9" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="109"/>
-      <c r="B10" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
-      <c r="B11" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="110"/>
-      <c r="B12" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
+      <c r="B19" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="H19" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+      <c r="B20" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="H20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="H21" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="98"/>
+      <c r="B22" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="98"/>
+      <c r="B23" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="98"/>
+      <c r="B24" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="96"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="99"/>
+      <c r="B25" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="96"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="H26" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="96"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="H27" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="H29" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="96"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="H30" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="96"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="67"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="67"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="67"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="H31" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="67"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="108" t="s">
+      <c r="I31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="96"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="H32" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="67"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70" t="s">
+      <c r="I32" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="96"/>
+    </row>
+    <row r="33" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="H33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="67"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="67"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="96"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="118"/>
+      <c r="B34" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
+      <c r="H34" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="96"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="118"/>
+      <c r="B35" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="96"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="118"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="118"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="96"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="96"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="96"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
+      <c r="H39" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="96"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
+      <c r="H40" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
+  <mergeCells count="81">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
@@ -2718,6 +3242,11 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B10:F10"/>
@@ -2729,9 +3258,66 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="I38:M38"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B5 B18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B5 B18 I5 I18 B31 I31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Highest,High,Medium,Low,Lowest"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2744,980 +3330,892 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="66" customWidth="1"/>
-    <col min="3" max="3" width="92" style="66" customWidth="1"/>
-    <col min="4" max="4" width="21" style="66" customWidth="1"/>
-    <col min="5" max="5" width="13" style="66" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="66" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="66"/>
+    <col min="1" max="1" width="39.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="113.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="A1" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="A2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="A3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
+      <c r="A4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="123"/>
+      <c r="B8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="85"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="85"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="85"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="85"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="85"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="85"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="85"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="85"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="85"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="91"/>
-    </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="90"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>104</v>
-      </c>
+      <c r="E8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="120"/>
+      <c r="B11" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="120"/>
+      <c r="B12" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="120"/>
+      <c r="B13" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="121"/>
+      <c r="B14" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="84"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="84"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="84"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="84"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="84"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="84"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="84"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="84"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="84"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="84"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="84"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="84"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="84"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="84"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="84"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="84"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="84"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="84"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="84"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="84"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="84"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="84"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="84"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="84"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="84"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="84"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="84"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="84"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="84"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="84"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="84"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="84"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
     </row>
     <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="84"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="84"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
     </row>
     <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
     </row>
     <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="84"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
     </row>
     <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="84"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
     </row>
     <row r="97" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
     </row>
     <row r="98" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
     </row>
     <row r="99" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
     </row>
     <row r="100" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
+      <c r="F100" s="21"/>
     </row>
     <row r="101" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
+      <c r="F101" s="21"/>
     </row>
     <row r="102" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
+      <c r="F102" s="21"/>
     </row>
     <row r="103" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
+      <c r="F103" s="21"/>
     </row>
     <row r="104" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
+      <c r="F104" s="21"/>
     </row>
     <row r="105" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-    </row>
-    <row r="106" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-    </row>
-    <row r="107" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-    </row>
-    <row r="108" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-    </row>
-    <row r="109" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-    </row>
-    <row r="110" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F110" s="83"/>
-    </row>
-    <row r="111" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F111" s="83"/>
-    </row>
-    <row r="112" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F112" s="83"/>
-    </row>
-    <row r="113" spans="6:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F113" s="83"/>
-    </row>
-    <row r="114" spans="6:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F114" s="83"/>
-    </row>
-    <row r="115" spans="6:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F115" s="83"/>
+      <c r="F105" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Highest,High,Medium,Low,Lowest"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1" xr:uid="{3BBC626A-CC1D-49A8-99B2-7A95B27B3A38}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/College lectures/Тест План Лендинга.xlsx
+++ b/College lectures/Тест План Лендинга.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebk\Desktop\Testing-automatization\College lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Testing-automatization\College lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EB736-77D2-4C7A-A64A-A52D9245AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B188393-C6E8-45A2-8207-346723B3F2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Тест План Лендинга" sheetId="1" r:id="rId1"/>
     <sheet name="2 Структура сайта Эл. веб стр" sheetId="2" r:id="rId2"/>
     <sheet name="3 Тест-Кейсы" sheetId="4" r:id="rId3"/>
     <sheet name="4 Чек-лист" sheetId="5" r:id="rId4"/>
+    <sheet name="5 Подбор данных Pairwise" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="201">
   <si>
     <t>Менеджер проекта</t>
   </si>
@@ -598,6 +599,63 @@
   </si>
   <si>
     <t>Переход на Telegram</t>
+  </si>
+  <si>
+    <t>кабель</t>
+  </si>
+  <si>
+    <t>корелла</t>
+  </si>
+  <si>
+    <t>кошка</t>
+  </si>
+  <si>
+    <t>девочка</t>
+  </si>
+  <si>
+    <t>индийский</t>
+  </si>
+  <si>
+    <t>сучка</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>мальчик</t>
+  </si>
+  <si>
+    <t>питбуль</t>
+  </si>
+  <si>
+    <t>немецкая овчарка</t>
+  </si>
+  <si>
+    <t>кот</t>
+  </si>
+  <si>
+    <t>герой</t>
+  </si>
+  <si>
+    <t>попугай</t>
+  </si>
+  <si>
+    <t>обезьяна</t>
+  </si>
+  <si>
+    <t>возраст</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>порода</t>
+  </si>
+  <si>
+    <t>Вид животного</t>
+  </si>
+  <si>
+    <t>https://pairwise.teremokgames.com/1yj1k/</t>
   </si>
 </sst>
 </file>
@@ -607,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +813,21 @@
       <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1185,12 +1258,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1293,77 +1367,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1389,9 +1402,15 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,6 +1425,71 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,12 +1502,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,47 +1538,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,10 +1571,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{EC6A231F-5383-40CD-A8FE-464507FED163}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{8EC8737F-C267-4D1B-8448-8317501F917B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1897,36 +1979,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="85" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1938,15 +2020,15 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1961,28 +2043,28 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="80" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1991,15 +2073,15 @@
       <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2008,15 +2090,15 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2025,15 +2107,15 @@
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="54"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2042,15 +2124,15 @@
       <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2059,15 +2141,15 @@
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="55" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2076,8 +2158,8 @@
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2089,15 +2171,15 @@
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="61" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2106,122 +2188,126 @@
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="66" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:B18"/>
@@ -2238,22 +2324,18 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2281,18 +2363,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
@@ -2310,11 +2392,11 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
@@ -2396,11 +2478,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2436,11 +2518,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -2501,14 +2583,14 @@
       <c r="A1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N2" s="17" t="s">
@@ -2516,22 +2598,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="H3" s="105" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="H3" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="17" t="s">
         <v>164</v>
       </c>
@@ -2540,23 +2622,23 @@
       <c r="A4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
       <c r="H4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -2565,246 +2647,246 @@
       <c r="B5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
       <c r="H5" s="35">
         <v>4</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
       <c r="H6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="I6" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
       <c r="H7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="H8" s="108" t="s">
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="H8" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="94" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="109"/>
-      <c r="B10" s="94" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="110"/>
-      <c r="B12" s="94" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
       <c r="H13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="91" t="s">
+      <c r="I13" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
       <c r="H14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="96"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="99"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="H16" s="105" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="H16" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="99"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="H17" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -2813,494 +2895,427 @@
       <c r="B18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
       <c r="H18" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="99"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
       <c r="H19" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="102" t="s">
+      <c r="I19" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="99"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
       <c r="H20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="H21" s="97" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="H21" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="94" t="s">
+      <c r="I21" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="94" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94" t="s">
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="94" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94" t="s">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="94" t="s">
+      <c r="A24" s="113"/>
+      <c r="B24" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94" t="s">
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="96"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="99"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
-      <c r="B25" s="94" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="99"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
       <c r="H26" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="94" t="s">
+      <c r="I26" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="96"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="99"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
       <c r="H27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="94" t="s">
+      <c r="I27" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="99"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="H29" s="105" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="H29" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="99"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="99"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
       <c r="H31" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="99"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
       <c r="H32" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="102" t="s">
+      <c r="I32" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="96"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="99"/>
     </row>
     <row r="33" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
       <c r="H33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="96"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="99"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="118"/>
-      <c r="B34" s="102" t="s">
+      <c r="A34" s="117"/>
+      <c r="B34" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96"/>
-      <c r="H34" s="97" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="H34" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="94" t="s">
+      <c r="I34" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="99"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="118"/>
-      <c r="B35" s="102" t="s">
+      <c r="A35" s="117"/>
+      <c r="B35" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="94" t="s">
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="99"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="118"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="99"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="118"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="99"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="101"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="96"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="99"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="93"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="116"/>
       <c r="H39" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="94" t="s">
+      <c r="I39" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="96"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="99"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="99"/>
       <c r="H40" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="94" t="s">
+      <c r="I40" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="96"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I33:M33"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="I39:M39"/>
     <mergeCell ref="B40:F40"/>
@@ -3315,6 +3330,73 @@
     <mergeCell ref="I37:M37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="I38:M38"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="B5 B18 I5 I18 B31 I31" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3332,8 +3414,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3348,11 +3430,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -3422,7 +3504,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="125" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -3440,7 +3522,7 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="123"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="33" t="s">
         <v>96</v>
       </c>
@@ -3474,7 +3556,7 @@
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="122" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -3490,7 +3572,7 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="31" t="s">
         <v>147</v>
       </c>
@@ -3504,7 +3586,7 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="31" t="s">
         <v>171</v>
       </c>
@@ -3518,7 +3600,7 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="31" t="s">
         <v>171</v>
       </c>
@@ -3532,7 +3614,7 @@
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="31" t="s">
         <v>171</v>
       </c>
@@ -3599,7 +3681,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -4218,4 +4300,931 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943686EB-6AAA-4EDF-9806-01B9A48229EC}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="45"/>
+    <col min="2" max="2" width="16.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="46">
+        <v>8</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
+        <v>16</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
+        <v>23</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
+        <v>24</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47">
+        <v>25</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47">
+        <v>26</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
+        <v>27</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47">
+        <v>28</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
+        <v>29</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47">
+        <v>30</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
+        <v>31</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47">
+        <v>32</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
+        <v>33</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47">
+        <v>34</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="47">
+        <v>35</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="47">
+        <v>36</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>37</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47">
+        <v>38</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
+        <v>39</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47">
+        <v>40</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47">
+        <v>41</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47">
+        <v>42</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
+        <v>43</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47">
+        <v>44</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47">
+        <v>45</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47">
+        <v>47</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47">
+        <v>48</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47">
+        <v>49</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47">
+        <v>50</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47">
+        <v>51</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47">
+        <v>52</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="46">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/College lectures/Тест План Лендинга.xlsx
+++ b/College lectures/Тест План Лендинга.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Testing-automatization\College lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B188393-C6E8-45A2-8207-346723B3F2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D499657-1F08-4879-9CA5-9EAA0B5DC98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="205">
   <si>
     <t>Менеджер проекта</t>
   </si>
@@ -656,6 +656,18 @@
   </si>
   <si>
     <t>https://pairwise.teremokgames.com/1yj1k/</t>
+  </si>
+  <si>
+    <t>https://7feetgolubino.ru</t>
+  </si>
+  <si>
+    <t>Переход на программу лагеря</t>
+  </si>
+  <si>
+    <t>Техника класса эквивалентности</t>
+  </si>
+  <si>
+    <t>Написать граничные условия</t>
   </si>
 </sst>
 </file>
@@ -978,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1220,19 +1232,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1257,6 +1256,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1377,6 +1396,77 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1402,15 +1492,9 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1425,71 +1509,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,72 +1521,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1979,36 +1998,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="66" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2020,15 +2039,15 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2043,28 +2062,28 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2073,15 +2092,15 @@
       <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="86" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2090,15 +2109,15 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="86" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="59"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2107,15 +2126,15 @@
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="86" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="59"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2124,15 +2143,15 @@
       <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2141,15 +2160,15 @@
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="90" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2158,8 +2177,8 @@
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2171,15 +2190,15 @@
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="72" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2188,126 +2207,122 @@
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="81" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="76" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="76" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="77"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="76" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="76" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="76" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:B18"/>
@@ -2324,18 +2339,22 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2565,8 +2584,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2583,14 +2602,14 @@
       <c r="A1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N2" s="17" t="s">
@@ -2598,22 +2617,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="H3" s="101" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="H3" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="17" t="s">
         <v>164</v>
       </c>
@@ -2622,23 +2641,23 @@
       <c r="A4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
       <c r="H4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -2647,20 +2666,20 @@
       <c r="B5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
       <c r="H5" s="35">
         <v>4</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
@@ -2669,224 +2688,224 @@
       <c r="B6" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
       <c r="H6" s="37" t="s">
         <v>95</v>
       </c>
       <c r="I6" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="H8" s="104" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="H8" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="B9" s="97" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="97" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="97" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="105"/>
-      <c r="B11" s="97" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="106"/>
-      <c r="B12" s="97" t="s">
+      <c r="A12" s="118"/>
+      <c r="B12" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
       <c r="H13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="109"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
       <c r="H14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="99"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="H16" s="101" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="H16" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="H17" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="102" t="s">
+      <c r="I17" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="99"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -2895,20 +2914,20 @@
       <c r="B18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
       <c r="H18" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
@@ -2917,214 +2936,214 @@
       <c r="B19" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
       <c r="H19" s="38" t="s">
         <v>95</v>
       </c>
       <c r="I19" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
       <c r="H20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="H21" s="112" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="H21" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="I21" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="102"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="97" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="97" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="102"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="97" t="s">
+      <c r="A23" s="105"/>
+      <c r="B23" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="97" t="s">
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="105"/>
+      <c r="B24" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="97" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="97" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="99"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
       <c r="H26" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="97" t="s">
+      <c r="I26" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="99"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
       <c r="H27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="97" t="s">
+      <c r="I27" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="99"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="99"/>
-      <c r="H29" s="101" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="102"/>
+      <c r="H29" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="99"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="102"/>
       <c r="H30" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I30" s="102" t="s">
+      <c r="I30" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="99"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="102"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
@@ -3133,20 +3152,20 @@
       <c r="B31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
       <c r="H31" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="99"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="102"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
@@ -3155,167 +3174,234 @@
       <c r="B32" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
       <c r="H32" s="38" t="s">
         <v>95</v>
       </c>
       <c r="I32" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="99"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="102"/>
     </row>
     <row r="33" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="112"/>
       <c r="H33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="97"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="102"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
-      <c r="H34" s="112" t="s">
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="102"/>
+      <c r="H34" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="97" t="s">
+      <c r="I34" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="99"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="102"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="99"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="97" t="s">
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="99"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="102"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="103"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="99"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="103"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="99"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="102"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="102"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="99"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="102"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="116"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
       <c r="H39" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="97" t="s">
+      <c r="I39" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="99"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="102"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="99"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="102"/>
       <c r="H40" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="97" t="s">
+      <c r="I40" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="99"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I33:M33"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="I39:M39"/>
     <mergeCell ref="B40:F40"/>
@@ -3330,73 +3416,6 @@
     <mergeCell ref="I37:M37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="I38:M38"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="B5 B18 I5 I18 B31 I31" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3412,10 +3431,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3433,8 +3452,8 @@
       <c r="A1" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -3504,7 +3523,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="122" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -3522,7 +3541,7 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="126"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="33" t="s">
         <v>96</v>
       </c>
@@ -3556,14 +3575,14 @@
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="122" t="s">
-        <v>138</v>
+      <c r="A10" s="124" t="s">
+        <v>201</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>177</v>
+        <v>101</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="24" t="s">
@@ -3572,12 +3591,12 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="123"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>178</v>
+      <c r="C11" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="24" t="s">
@@ -3586,12 +3605,12 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="123"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="31" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="24" t="s">
@@ -3600,12 +3619,12 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="123"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="31" t="s">
         <v>171</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="24" t="s">
@@ -3614,12 +3633,12 @@
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="124"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="31" t="s">
         <v>171</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="24" t="s">
@@ -3627,45 +3646,45 @@
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="126"/>
+      <c r="B15" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -3674,23 +3693,27 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -3699,32 +3722,32 @@
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -3739,32 +3762,32 @@
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -3779,16 +3802,16 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -3819,16 +3842,16 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3843,16 +3866,16 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -3875,16 +3898,16 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -3899,16 +3922,16 @@
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
@@ -3923,16 +3946,16 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -3947,16 +3970,16 @@
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -3971,16 +3994,16 @@
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -3995,16 +4018,16 @@
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -4019,16 +4042,16 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -4043,16 +4066,16 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -4067,24 +4090,24 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -4210,16 +4233,25 @@
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -4275,12 +4307,18 @@
       <c r="F99" s="21"/>
     </row>
     <row r="100" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
     <row r="101" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="21"/>
     </row>
     <row r="102" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="21"/>
     </row>
     <row r="103" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4291,26 +4329,38 @@
     </row>
     <row r="105" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F108" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{D7003462-6D96-48E5-ACA5-A37013A269FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943686EB-6AAA-4EDF-9806-01B9A48229EC}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,7 +5188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>48</v>
       </c>
@@ -5155,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>49</v>
       </c>
@@ -5172,7 +5222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <v>50</v>
       </c>
@@ -5189,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47">
         <v>51</v>
       </c>
@@ -5206,7 +5256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <v>52</v>
       </c>
@@ -5221,6 +5271,14 @@
       </c>
       <c r="E53" s="46">
         <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G54" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M54" s="45" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
